--- a/content/week4/C8_factorfriccion.xlsx
+++ b/content/week4/C8_factorfriccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasalazar/Documents/GitHub/ua-imec2001-hc-202310-s2/content/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4944F-2117-D64C-BBE9-C87A83B9B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC64418F-37DF-9940-BC81-4FCC5CFA1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14540" xr2:uid="{CC424A83-3C76-4743-A6B5-F176198D44FC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$A$1</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver!$D$14</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -35,7 +35,7 @@
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solver!$D$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solver!$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Buscar Objetivo'!$F$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Iteraciones!$F$13</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Solver!$D$14</definedName>
@@ -62,10 +62,10 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$A$1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver!$D$18</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -74,13 +74,13 @@
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Solver!$D$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Solver!$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Buscar Objetivo'!$D$15</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Iteraciones!$H$13</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">Solver!$D$15</definedName>
@@ -107,7 +107,7 @@
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
@@ -2084,9 +2084,18 @@
       <c r="F13" s="30">
         <v>0.9</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="28">
+        <f>1/(-2*LOG(($D$12/3.7)+(2.51/($D$10*SQRT(F13)))))^2</f>
+        <v>1.8801956589130114E-2</v>
+      </c>
+      <c r="H13" s="32">
+        <f>ABS(F13-G13)</f>
+        <v>0.88119804341086994</v>
+      </c>
+      <c r="I13" s="33" t="b">
+        <f>H13&lt;=$C$14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
@@ -2095,16 +2104,40 @@
       <c r="C14" s="25">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="30">
+        <f>G13</f>
+        <v>1.8801956589130114E-2</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" ref="G14:G16" si="0">1/(-2*LOG(($D$12/3.7)+(2.51/($D$10*SQRT(F14)))))^2</f>
+        <v>1.9839275271524945E-2</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" ref="H14:H16" si="1">ABS(F14-G14)</f>
+        <v>1.0373186823948305E-3</v>
+      </c>
+      <c r="I14" s="33" t="b">
+        <f t="shared" ref="I14:I16" si="2">H14&lt;=$C$14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="30">
+        <f t="shared" ref="F15:F16" si="3">G14</f>
+        <v>1.9839275271524945E-2</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="0"/>
+        <v>1.980923153687951E-2</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0043734645435194E-5</v>
+      </c>
+      <c r="I15" s="33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F16" s="30"/>
@@ -2252,10 +2285,21 @@
         <f>D6*D5*D3/D7</f>
         <v>278468.89952153113</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="39"/>
+      <c r="F10" s="40">
+        <v>1.7999999999999971E-2</v>
+      </c>
+      <c r="G10" s="41">
+        <f>1/SQRT(F10)</f>
+        <v>7.453559924999305</v>
+      </c>
+      <c r="H10" s="42">
+        <f>-2*LOG((D12/3.7)+(2.51/(D10*SQRT(F10))))</f>
+        <v>7.0952020573320258</v>
+      </c>
+      <c r="I10" s="39">
+        <f>ABS(G10-H10)</f>
+        <v>0.35835786766727917</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
@@ -2400,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="23">
-        <v>0.01</v>
+        <v>1.9810039385185916E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -2410,7 +2454,10 @@
       <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <f>1/(-2*LOG((D12/3.7)+(2.51/(D10*SQRT(D14)))))^2</f>
+        <v>1.9810047395103295E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
@@ -2428,7 +2475,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="11">
         <f>ABS(D14-D15)</f>
-        <v>0.01</v>
+        <v>8.0099173786762901E-9</v>
       </c>
     </row>
   </sheetData>
